--- a/product-definitions/spreadsheet/aerosol-optical-depth.xlsx
+++ b/product-definitions/spreadsheet/aerosol-optical-depth.xlsx
@@ -12,20 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -35,18 +41,9 @@
     <t>Proposed name</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>example value</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>&lt;i&gt;</t>
-  </si>
-  <si>
     <t>instrument_channel_wavelength</t>
   </si>
   <si>
@@ -101,35 +98,13 @@
     <t>cell_methods</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
-  </si>
-  <si>
-    <t>mean or point</t>
+    <t>time: mean or time: point</t>
   </si>
   <si>
     <t>atmosphere_optical_thickness_due_to_ambient_aerosol_particles</t>
   </si>
   <si>
     <t>Atmosphere Optical Thickness Due to Ambient Aerosol Particles</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">time: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>????</t>
-    </r>
   </si>
   <si>
     <t>qc_flag</t>
@@ -202,28 +177,28 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
@@ -248,6 +223,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
@@ -295,124 +273,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="12.0" customHeight="1"/>
     <row r="6" ht="12.0" customHeight="1"/>
@@ -1435,74 +1413,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
+      <c r="A2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10">
         <v>-1.0E20</v>
@@ -1510,55 +1486,55 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12" t="s">
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="9">
         <v>1.0</v>
@@ -1566,24 +1542,24 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10">
         <v>-1.0E20</v>
@@ -1591,67 +1567,65 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="B22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="C24" s="12"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>31</v>
+      <c r="A25" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="B28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="8">
         <v>1.0</v>
@@ -1659,24 +1633,24 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="10">
         <v>-1.0E20</v>
@@ -1684,101 +1658,99 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="B34" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="C36" s="12"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>34</v>
+      <c r="A37" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C37" s="12"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="16">
+        <v>2</v>
+      </c>
+      <c r="C40" s="17">
         <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="12.0" customHeight="1">
-      <c r="B43" s="17" t="s">
-        <v>37</v>
+      <c r="B43" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="B44" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="12.0" customHeight="1"/>
@@ -1795,21 +1767,21 @@
       <c r="C49" s="12"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
-      <c r="C50" s="16"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
-      <c r="C51" s="16"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="C52" s="8"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
-      <c r="B53" s="17"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="14"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="B54" s="15"/>
-      <c r="C54" s="18"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" ht="12.0" customHeight="1"/>
     <row r="56" ht="12.0" customHeight="1"/>
